--- a/asivamosffie.web/asivamosffie/src/assets/files/TemplateRegistrarPagos.xlsx
+++ b/asivamosffie.web/asivamosffie/src/assets/files/TemplateRegistrarPagos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44e3a72bd59b7ff1/IVOLUCION/FFIE/Escenarios de prueba/4. Seguimiento/Paquete 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EFD70B-AD26-40F2-A8B2-B5C2A26E0D39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE085000-C002-4201-9831-63671EF63B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -404,16 +404,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
